--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_157.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_157.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07968509984639016</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb', 'Eb:7', 'Ab'], ['Bb:7', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'F:7', 'Bb', 'Bb', 'Bb'], ['Bb', 'Bb', 'Bb', 'Bb:7', 'Eb'], ['F:7', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(22.43, 27.5), (42.06, 49.44), (40.24, 46.47)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.77, 14.68), (11.95, 15.8), (26.67, 31.88)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>isophonics_57</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06725146198830409</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'G'], ['G', 'G', 'C']]</t>
-        </is>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1144736842105263</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Eb'], ['Eb', 'Eb', 'Ab']]</t>
+          <t>[['G', 'B:min', 'E:min'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(22.107142, 25.532085), (9.231677, 12.668231)]</t>
+          <t>[['D', 'F#:min/5', 'B:min'], ['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(131.54, 134.26), (136.07, 138.78)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:43.597210', '0:00:48.786870'), ('0:00:17.788231', '0:00:22.107142')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:15.029682', '0:00:20.080022'), ('0:00:09.979342', '0:00:15.029682')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.14, 27.5)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1339285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'G/3', 'C']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56), (45.48, 48.0)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (41.655, 46.22)]</t>
+          <t>[('0:00:59.500000', '0:01:05.040000'), ('0:00:00.340000', '0:00:17.940000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:08.720000', '0:00:10.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2392857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.103232, 6.886543), (0.465952, 5.272756)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:04:14.260000', '0:04:17.980000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1785714285714285</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(19.82, 29.1)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[('0:01:20.800000', '0:01:31.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:51.690000', '0:00:55.720000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.404, 18.573)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.727, 41.282)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2132352941176471</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.612267, 17.443474)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1387846961740435</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A', 'D', 'A']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(98.07585, 112.344512)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(23.795215, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'F#:min', 'B:min(6)']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'D:hdim7/C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(74.838, 79.91)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.16, 20.78)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1168831168831169</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['C', 'C', 'C:7']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38), (74.84, 87.34)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08), (38.58, 39.86)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.8, 9.52), (70.8, 78.3)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.0, 11.36), (78.1, 86.06)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1080745341614907</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7'], ['F', 'F:min', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.0, 47.79), (4.3, 5.85)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(34.041, 38.588), (38.588, 43.202)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
